--- a/GPT_MASB_Room109.xlsx
+++ b/GPT_MASB_Room109.xlsx
@@ -474,372 +474,372 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24001-CS-017</t>
+          <t>23001-ME-024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-029</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24001-CS-018</t>
+          <t>23001-ME-025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-030</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-030</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24001-CS-019</t>
+          <t>22001-EE-001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-031</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-031</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>24001-CS-020</t>
+          <t>22001-EE-002</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-032</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-032</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-014</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-010</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-010</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-015</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-011</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-011</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-016</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-012</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-012</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-017</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-033</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24001-CS-021</t>
+          <t>22001-EE-003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-033</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-034</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24001-CS-022</t>
+          <t>22001-EE-004</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-034</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-035</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24001-CS-023</t>
+          <t>22001-EE-005</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-035</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-036</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>24001-CS-024</t>
+          <t>22001-EE-006</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-036</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-018</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-013</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-014</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-014</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-015</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-015</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-021</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-016</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-016</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-037</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-037</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24001-CS-025</t>
+          <t>22001-EE-007</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-038</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-038</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24001-CS-026</t>
+          <t>22001-EE-008</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-039</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-039</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>24001-CS-027</t>
+          <t>22001-EE-009</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CS-040</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-040</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>24001-CS-028</t>
+          <t>22001-EE-010</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-017</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-018</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-023</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-018</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-019</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-020</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-025</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-PH-020</t>
         </is>
       </c>
     </row>
